--- a/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t xml:space="preserve">Projects:    
 </t>
@@ -166,16 +166,7 @@
     <t>https://github.com/Rombt/gulp-assembly</t>
   </si>
   <si>
-    <t>Easy creation and modification of page grids</t>
-  </si>
-  <si>
-    <t>Font transformation to WOFF and WOFF2 formats, including font file creation</t>
-  </si>
-  <si>
     <t>Image optimization to WebP format with JPEG fallback for older browsers</t>
-  </si>
-  <si>
-    <t>Optimization and compression of styles and JavaScript into a single file</t>
   </si>
   <si>
     <t>SVG sprite creation, ZIP archive creation, FTP deployment to hosting</t>
@@ -412,19 +403,9 @@
     <t>Emergency Service Fire Safety Inspector</t>
   </si>
   <si>
-    <t>разработка и прорисовка план-схем магазинов</t>
-  </si>
-  <si>
     <t>Manager of Retail Network Expansion at "Veresen Plus" LLC</t>
   </si>
   <si>
-    <t xml:space="preserve"> was responsible for: </t>
-  </si>
-  <si>
-    <t>Developing and designing store layout plans.
-Sourcing, procuring, and organizing timely delivery of all store equipment.</t>
-  </si>
-  <si>
     <t>Industrial and Technological Center "IMPEXMASH"</t>
   </si>
   <si>
@@ -435,6 +416,21 @@
   </si>
   <si>
     <t>spare parts sales manager also, my responsibilities include maintenance and administration of the company's website</t>
+  </si>
+  <si>
+    <t>Easily create, edit and display a grid on a page</t>
+  </si>
+  <si>
+    <t>Font transformation to WOFF and WOFF2 formats, fonts file creation</t>
+  </si>
+  <si>
+    <t>Optimization and compression of styles and JavaScript into a single files</t>
+  </si>
+  <si>
+    <t>developing and droving store layout plans. Sourcing, procuring, and organizing timely delivery of all store equipment.</t>
+  </si>
+  <si>
+    <t>Organizing the opening of new chain stores</t>
   </si>
 </sst>
 </file>
@@ -660,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -700,80 +696,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,34 +711,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -828,17 +729,109 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1124,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1135,49 +1128,49 @@
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="6" style="52" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="52" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="52"/>
-    <col min="12" max="12" width="5.140625" style="52" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="52" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="52" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="52" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="52"/>
+    <col min="6" max="6" width="2.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="6" style="24" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="24"/>
+    <col min="12" max="12" width="5.140625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E1" s="45"/>
-      <c r="F1" s="62"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="62"/>
-      <c r="H3" s="35" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1185,42 +1178,42 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="62"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="29"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="62"/>
-      <c r="H5" s="38" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="29"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1229,291 +1222,292 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="D9" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="D9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="62"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="24" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="62"/>
-      <c r="H14" s="17" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="29"/>
+      <c r="H14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="29"/>
+      <c r="H15" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="29"/>
+      <c r="H16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="P14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="62"/>
-      <c r="H15" s="17" t="s">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="29"/>
+      <c r="H17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="29"/>
+      <c r="H18" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="P15" s="65"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="62"/>
-      <c r="H16" s="17" t="s">
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="29"/>
+      <c r="H19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="P16" s="65"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="62"/>
-      <c r="H17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="P17" s="65"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="62"/>
-      <c r="H18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="P18" s="65"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="62"/>
-      <c r="H19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="62"/>
-      <c r="H20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="29"/>
+      <c r="H20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="26"/>
+      <c r="B21" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="64"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="71" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
@@ -1521,21 +1515,21 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="62"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="I23" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
@@ -1543,36 +1537,36 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -1583,19 +1577,19 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="45"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
@@ -1603,19 +1597,19 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
@@ -1623,17 +1617,17 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
@@ -1641,19 +1635,19 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="22" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
@@ -1661,478 +1655,443 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="22" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="24" t="s">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="45"/>
-      <c r="H32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="19"/>
+      <c r="H32" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="65"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="32"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="17" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="18" t="s">
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="65"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="65"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="32"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="62"/>
-      <c r="H38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="29"/>
+      <c r="H38" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="62"/>
-      <c r="H39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="B39" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="29"/>
+      <c r="H39" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="62"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="41" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="45"/>
-      <c r="F42" s="62"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="58" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="49"/>
+      <c r="I43" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="45"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="58" t="s">
+      <c r="E46" s="19"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="49"/>
+      <c r="I46" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+    </row>
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="29"/>
+      <c r="H47" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="19"/>
+      <c r="F48" s="29"/>
+      <c r="H48" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-    </row>
-    <row r="47" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="62"/>
-      <c r="H47" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50" t="s">
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="29"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="45"/>
-      <c r="F48" s="62"/>
-      <c r="H48" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="62"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E51" s="45"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
     </row>
     <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="45"/>
-      <c r="F52" s="62"/>
-    </row>
-    <row r="53" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="19"/>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F54" s="62"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F55" s="62"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F56" s="62"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F57" s="62"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F58" s="62"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F59" s="62"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F60" s="62"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F61" s="62"/>
+      <c r="F61" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="I46:O46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="H48:N49"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="72">
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H15:O15"/>
     <mergeCell ref="G36:N36"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2149,18 +2108,50 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="H48:N49"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="I46:O46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>

--- a/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,110 +730,111 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1117,11 +1118,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:O47"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A6" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -1141,77 +1142,77 @@
     <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="E1" s="19"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="19"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="20"/>
       <c r="F3" s="29"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="21"/>
       <c r="F4" s="29"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="21"/>
       <c r="F5" s="29"/>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="21"/>
       <c r="F6" s="29"/>
       <c r="H6" s="6"/>
@@ -1221,97 +1222,97 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+    <row r="7" spans="1:16" ht="3" customHeight="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="20"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="19"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="55"/>
+      <c r="D9" s="71" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="E10" s="22"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="16"/>
       <c r="E11" s="23"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1319,177 +1320,177 @@
       <c r="E12" s="23"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:16">
+      <c r="B13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1">
+      <c r="B14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="3"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29"/>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="3"/>
       <c r="E15" s="19"/>
       <c r="F15" s="29"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="3"/>
       <c r="E16" s="19"/>
       <c r="F16" s="29"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="3"/>
       <c r="E17" s="19"/>
       <c r="F17" s="29"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="29"/>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="P18" s="32"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+    <row r="19" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="3"/>
       <c r="E19" s="19"/>
       <c r="F19" s="29"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B20" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="3"/>
       <c r="E20" s="19"/>
       <c r="F20" s="29"/>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B21" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
@@ -1498,18 +1499,18 @@
       <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
@@ -1521,17 +1522,17 @@
       <c r="H23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="13" t="s">
         <v>14</v>
       </c>
@@ -1540,38 +1541,38 @@
       <c r="E24" s="19"/>
       <c r="F24" s="8"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15.75" customHeight="1">
       <c r="B26" s="13" t="s">
         <v>17</v>
       </c>
@@ -1580,18 +1581,18 @@
       <c r="E26" s="19"/>
       <c r="F26" s="8"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1600,18 +1601,18 @@
       <c r="E27" s="19"/>
       <c r="F27" s="29"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1620,16 +1621,16 @@
       <c r="E28" s="19"/>
       <c r="F28" s="29"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
@@ -1638,18 +1639,18 @@
       <c r="E29" s="19"/>
       <c r="F29" s="29"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="13" t="s">
         <v>16</v>
       </c>
@@ -1658,370 +1659,370 @@
       <c r="E30" s="19"/>
       <c r="F30" s="29"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1">
+      <c r="B31" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="19"/>
       <c r="F31" s="29"/>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="19"/>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="B33" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="13"/>
       <c r="E33" s="19"/>
       <c r="F33" s="29"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
       <c r="O33" s="32"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="19"/>
       <c r="F34" s="29"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="B35" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="19"/>
       <c r="F35" s="29"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="B36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="19"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="32"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
+    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="B37" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="19"/>
       <c r="F37" s="29"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="32"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="B38" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="19"/>
       <c r="F38" s="29"/>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="B39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="19"/>
       <c r="F39" s="29"/>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="14"/>
       <c r="E40" s="19"/>
       <c r="F40" s="29"/>
       <c r="G40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-    </row>
-    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="36" t="s">
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A41" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="16"/>
       <c r="E41" s="19"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1">
       <c r="E42" s="19"/>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="1:15" ht="15" customHeight="1">
+      <c r="B43" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="19"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="39" t="s">
+      <c r="H43" s="63"/>
+      <c r="I43" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47" t="s">
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="B44" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="19"/>
       <c r="F44" s="29"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="19"/>
       <c r="F45" s="29"/>
       <c r="G45" s="27"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="19"/>
       <c r="F46" s="29"/>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="38" t="s">
+      <c r="H46" s="63"/>
+      <c r="I46" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-    </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36" t="s">
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+    </row>
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A47" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="16"/>
       <c r="E47" s="19"/>
       <c r="F47" s="29"/>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="19"/>
       <c r="F48" s="29"/>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A49" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="19"/>
       <c r="F49" s="29"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="19"/>
       <c r="F50" s="29"/>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42" t="s">
+      <c r="H50" s="66"/>
+      <c r="I50" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="E51" s="19"/>
       <c r="F51" s="34"/>
       <c r="G51" s="25"/>
@@ -2033,11 +2034,11 @@
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="19"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="25" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2054,44 +2055,76 @@
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="F61" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="H48:N49"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="G36:N36"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2108,50 +2141,18 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="H48:N49"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
@@ -2162,7 +2163,7 @@
     <hyperlink ref="G13" r:id="rId6"/>
     <hyperlink ref="G36:J36" r:id="rId7" display="http://impexmash.free.nf/"/>
     <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
-    <hyperlink ref="D9" r:id="rId9" display="LinkiDin"/>
+    <hyperlink ref="D9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Education:   </t>
-  </si>
-  <si>
-    <t>HTML &amp; CSS (LESS, SCSS)</t>
   </si>
   <si>
     <t>https://github.com/Rombt/gulp-assembly</t>
@@ -432,12 +429,15 @@
   <si>
     <t>Organizing the opening of new chain stores</t>
   </si>
+  <si>
+    <t>Telegram: @RombtNet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +611,13 @@
     <font>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -656,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -682,9 +689,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -730,111 +734,119 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1118,85 +1130,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A6" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="6" style="24" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="24"/>
-    <col min="12" max="12" width="5.140625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="24"/>
+    <col min="6" max="6" width="2.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="6" style="23" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="5.140625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="E1" s="19"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E1" s="18"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="29"/>
-      <c r="H3" s="54" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="29"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="28"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="28"/>
       <c r="H5" s="58" t="s">
         <v>22</v>
       </c>
@@ -1206,15 +1218,15 @@
       <c r="L5" s="58"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="28"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1222,15 +1234,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="29"/>
+    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
@@ -1240,15 +1252,15 @@
       <c r="M7" s="59"/>
       <c r="N7" s="59"/>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
@@ -1258,16 +1270,15 @@
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A9" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="D9" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="29"/>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
@@ -1277,854 +1288,824 @@
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="D10" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="53" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="70" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="28"/>
+      <c r="H14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="P14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="28"/>
+      <c r="H15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="28"/>
+      <c r="H16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="B14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="29"/>
-      <c r="H14" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="29"/>
-      <c r="H15" s="35" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="P16" s="31"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="28"/>
+      <c r="H17" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="29"/>
-      <c r="H16" s="35" t="s">
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="28"/>
+      <c r="H18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B18" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="29"/>
-      <c r="H18" s="35" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="P18" s="31"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="28"/>
+      <c r="H19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B20" s="41" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="41"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="28"/>
+      <c r="H20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="61"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="44" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B23" s="13" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B24" s="13" t="s">
+      <c r="I23" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B25" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="19"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B26" s="13" t="s">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B27" s="13" t="s">
+      <c r="G26" s="28"/>
+      <c r="H26" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="45" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1">
-      <c r="B30" s="13" t="s">
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="45" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1">
-      <c r="B31" s="43" t="s">
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="36" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1">
-      <c r="B32" s="43" t="s">
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="19"/>
-      <c r="H32" s="35" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="18"/>
+      <c r="H32" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="B33" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="B35" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="B36" s="43" t="s">
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="36" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="B37" s="43" t="s">
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="B38" s="62" t="s">
+      <c r="H37" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="29"/>
-      <c r="H38" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="B39" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="29"/>
-      <c r="H39" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="D40" s="14"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="29"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="28"/>
+      <c r="H38" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="28"/>
+      <c r="H39" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-    </row>
-    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A41" s="49" t="s">
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="61" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1">
-      <c r="E42" s="19"/>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="B43" s="60" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="18"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="B44" s="60" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
-      <c r="E46" s="19"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="63" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="18"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+    </row>
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="28"/>
+      <c r="H47" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="18"/>
+      <c r="F48" s="28"/>
+      <c r="H48" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="28"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-    </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A47" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="29"/>
-      <c r="H47" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
-      <c r="E48" s="19"/>
-      <c r="F48" s="29"/>
-      <c r="H48" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A49" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="29"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="66"/>
-      <c r="I50" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="E51" s="19"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1">
-      <c r="E52" s="19"/>
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="1:15" s="25" customFormat="1">
+      <c r="H50" s="38"/>
+      <c r="I50" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E51" s="18"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="18"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="F56" s="29"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="F61" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F61" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="I46:O46"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="H48:N49"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H15:O15"/>
     <mergeCell ref="G36:N36"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2141,29 +2122,61 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="H48:N49"/>
+    <mergeCell ref="H47:O47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9:B9" r:id="rId2" display="GitHub"/>
-    <hyperlink ref="G21:J21" r:id="rId3" display="http://rombt.free.nf/"/>
-    <hyperlink ref="G21" r:id="rId4"/>
-    <hyperlink ref="G13:J13" r:id="rId5" display="http://rombt.free.nf/"/>
-    <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G36:J36" r:id="rId7" display="http://impexmash.free.nf/"/>
-    <hyperlink ref="G31:J31" r:id="rId8" display="horizontal-menus"/>
-    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G21" r:id="rId2"/>
+    <hyperlink ref="G13:J13" r:id="rId3" display="http://rombt.free.nf/"/>
+    <hyperlink ref="G13" r:id="rId4"/>
+    <hyperlink ref="G36:J36" r:id="rId5" display="http://impexmash.free.nf/"/>
+    <hyperlink ref="G31:J31" r:id="rId6" display="horizontal-menus"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A10:B10" r:id="rId8" display="GitHub"/>
+    <hyperlink ref="D10" r:id="rId9" display="LinkiDin"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
+++ b/Фриланс/Резюме/level_0/Berehulenko Roman wordpress js-html-css.xlsx
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>http://rombt.free.nf/</t>
-  </si>
-  <si>
-    <t>http://impexmash.free.nf/</t>
   </si>
   <si>
     <t>horizontal-menus</t>
@@ -432,12 +429,15 @@
   <si>
     <t>Telegram: @RombtNet</t>
   </si>
+  <si>
+    <t>https://impexmash.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,9 +737,104 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -752,105 +847,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,7 +868,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -906,7 +906,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -978,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,11 +1130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -1154,77 +1154,77 @@
     <col min="16" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="E1" s="18"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="18"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="19"/>
       <c r="F3" s="28"/>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="20"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="20"/>
       <c r="F5" s="28"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="20"/>
       <c r="F6" s="28"/>
       <c r="H6" s="6"/>
@@ -1234,296 +1234,296 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+    <row r="7" spans="1:16" ht="3" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="19"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+      <c r="G7" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1">
+      <c r="A8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="D10" s="71" t="s">
-        <v>66</v>
+      <c r="B10" s="51"/>
+      <c r="D10" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="E11" s="21"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:16" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+    <row r="12" spans="1:16" ht="11.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="15"/>
       <c r="E12" s="22"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+      <c r="G13" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1">
+      <c r="B14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="3"/>
       <c r="E14" s="18"/>
       <c r="F14" s="28"/>
-      <c r="H14" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
       <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="3"/>
       <c r="E15" s="18"/>
       <c r="F15" s="28"/>
-      <c r="H15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="H15" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="61"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B16" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="42"/>
       <c r="D16" s="3"/>
       <c r="E16" s="18"/>
       <c r="F16" s="28"/>
-      <c r="H16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="H16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
       <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="3"/>
       <c r="E17" s="18"/>
       <c r="F17" s="28"/>
-      <c r="H17" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
+      <c r="H17" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="45"/>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
       <c r="F18" s="28"/>
-      <c r="H18" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="H18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
       <c r="P18" s="31"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
+    <row r="19" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="3"/>
       <c r="E19" s="18"/>
       <c r="F19" s="28"/>
-      <c r="H19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+      <c r="H19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
       <c r="F20" s="28"/>
-      <c r="H20" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="61"/>
+      <c r="H20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="42"/>
       <c r="D21" s="3"/>
       <c r="E21" s="18"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
@@ -1533,19 +1533,19 @@
       <c r="F23" s="8"/>
       <c r="G23" s="28"/>
       <c r="H23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
@@ -1554,38 +1554,38 @@
       <c r="E24" s="18"/>
       <c r="F24" s="8"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="H24" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="18"/>
       <c r="F25" s="8"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="H25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1594,18 +1594,18 @@
       <c r="E26" s="18"/>
       <c r="F26" s="8"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1614,18 +1614,18 @@
       <c r="E27" s="18"/>
       <c r="F27" s="28"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1634,16 +1634,16 @@
       <c r="E28" s="18"/>
       <c r="F28" s="28"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
@@ -1652,18 +1652,18 @@
       <c r="E29" s="18"/>
       <c r="F29" s="28"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="B30" s="12" t="s">
         <v>16</v>
       </c>
@@ -1672,370 +1672,370 @@
       <c r="E30" s="18"/>
       <c r="F30" s="28"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="H30" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1">
+      <c r="B31" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="18"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1">
+      <c r="B32" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="18"/>
+      <c r="H32" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="B33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="18"/>
-      <c r="H32" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="28"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
+      <c r="H33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="31"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="18"/>
       <c r="F34" s="28"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="H34" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="B35" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="18"/>
       <c r="F35" s="28"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="H35" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1">
+      <c r="B36" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="18"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="G36" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="B37" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="18"/>
       <c r="F37" s="28"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="H37" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="B38" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="18"/>
       <c r="F38" s="28"/>
-      <c r="H38" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="H38" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="B39" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="18"/>
       <c r="F39" s="28"/>
-      <c r="H39" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="D40" s="13"/>
       <c r="E40" s="18"/>
       <c r="F40" s="28"/>
       <c r="G40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-    </row>
-    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A41" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="15"/>
       <c r="E41" s="18"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
+      <c r="G41" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1">
       <c r="E42" s="18"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
+    <row r="43" spans="1:15" ht="15" customHeight="1">
+      <c r="B43" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="18"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
+      <c r="G43" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="B44" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="18"/>
       <c r="F44" s="28"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="28"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="18"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-    </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="G46" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="66"/>
+      <c r="I46" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+    </row>
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A47" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="15"/>
       <c r="E47" s="18"/>
       <c r="F47" s="28"/>
-      <c r="H47" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-    </row>
-    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="E48" s="18"/>
       <c r="F48" s="28"/>
-      <c r="H48" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="H48" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A49" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="18"/>
       <c r="F49" s="28"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="18"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G50" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="71"/>
+      <c r="I50" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="E51" s="18"/>
       <c r="F51" s="33"/>
       <c r="G51" s="24"/>
@@ -2047,11 +2047,11 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="8.25" customHeight="1">
       <c r="E52" s="18"/>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="24" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2068,44 +2068,76 @@
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="F54" s="28"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="F55" s="28"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="F61" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="H48:N49"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G10:J11"/>
+    <mergeCell ref="H3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G7:N9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:C12"/>
     <mergeCell ref="G36:N36"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B21:C21"/>
@@ -2122,50 +2154,18 @@
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G10:J11"/>
-    <mergeCell ref="H3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G7:N9"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="I46:O46"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="H48:N49"/>
-    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G21:J21" r:id="rId1" display="http://rombt.free.nf/"/>
@@ -2177,8 +2177,9 @@
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A10:B10" r:id="rId8" display="GitHub"/>
     <hyperlink ref="D10" r:id="rId9" display="LinkiDin"/>
+    <hyperlink ref="G36:N36" r:id="rId10" display="https://impexmash.com/"/>
   </hyperlinks>
   <pageMargins left="1.0416666666666666E-2" right="1.8115942028985508E-2" top="1.0416666666666666E-2" bottom="0.2" header="0.3" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>